--- a/data/growth.xlsx
+++ b/data/growth.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.2159</v>
+        <v>0.2158</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1.5285</v>
+        <v>1.5279</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-0.1706</v>
+        <v>-0.1704</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>26.8549</v>
+        <v>11.2932</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-4.1022</v>
+        <v>-8.7913</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>-0.7246</v>

--- a/data/growth.xlsx
+++ b/data/growth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet sheetId="1" name="PDD" r:id="rId4"/>
+    <sheet sheetId="1" name="PINS" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -89,22 +89,22 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44561.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43100.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>42735.0</v>
       </c>
     </row>
     <row r="2">
@@ -114,22 +114,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.5846</v>
+        <v>0.0367</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.8025</v>
+        <v>0.6478</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.3014</v>
+        <v>0.5861</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>8.1251</v>
+        <v>0.524</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>15.801</v>
+        <v>0.7484</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.0728</v>
+        <v>-0.428</v>
       </c>
     </row>
     <row r="3">
@@ -139,24 +139,22 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1.7528</v>
+        <v>-1.3117</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-0.1722</v>
+        <v>3.289</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.2192</v>
+        <v>0.8974</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-15.5395</v>
+        <v>-17.5874</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.9395</v>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.4583</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-0.846</v>
       </c>
     </row>
     <row r="4">
@@ -166,22 +164,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.7528</v>
+        <v>-1.3117</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-0.1722</v>
+        <v>3.289</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.2192</v>
+        <v>0.8974</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-15.5395</v>
+        <v>-17.5874</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-0.1043</v>
+        <v>0.4583</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.5057</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="5">
@@ -191,22 +189,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.1079</v>
+        <v>-1.3035</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-0.0994</v>
+        <v>3.4659</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.3318</v>
+        <v>0.9057</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-17.8389</v>
+        <v>-20.618</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>-0.6225</v>
+        <v>0.5157</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.3378</v>
+        <v>-1.0635</v>
       </c>
     </row>
     <row r="6">
@@ -216,22 +214,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2.0543</v>
+        <v>-1.2857</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-0.0455</v>
+        <v>3.2273</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.56</v>
+        <v>0.9321</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-99.0</v>
+        <v>-26.0</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>-1.0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -241,22 +239,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1.9239</v>
+        <v>-1.3043</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-0.0455</v>
+        <v>3.0909</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.56</v>
+        <v>0.9321</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-27.5714</v>
+        <v>-26.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.4286</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="8">
@@ -266,22 +264,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0452</v>
+        <v>-0.3768</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1.0298</v>
+        <v>25.119</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.8843</v>
+        <v>42.8752</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>21.4648</v>
+        <v>1.0109</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-0.6202</v>
+        <v>0.4134</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.9076</v>
+        <v>-0.7047</v>
       </c>
     </row>
     <row r="9">
@@ -291,22 +289,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-0.0727</v>
+        <v>-0.4082</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1.0304</v>
+        <v>64.1095</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.8875</v>
+        <v>1.3449</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>22.0099</v>
+        <v>0.5988</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>-0.6305</v>
+        <v>0.4271</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.9075</v>
+        <v>-0.7454</v>
       </c>
     </row>
     <row r="10">
@@ -316,19 +314,19 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0512</v>
+        <v>0.0402</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.0305</v>
+        <v>0.0734</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.5589</v>
+        <v>0.4181</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.682</v>
+        <v>2.3084</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>-0.6018</v>
+        <v>0.0042</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.0</v>
@@ -341,19 +339,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.1983</v>
+        <v>-0.0375</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.0305</v>
+        <v>0.16</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.5589</v>
+        <v>0.4181</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.682</v>
+        <v>2.3084</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>-0.6018</v>
+        <v>0.0042</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.0</v>
@@ -366,22 +364,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.1676</v>
+        <v>0.092</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1.2292</v>
+        <v>0.3555</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.7395</v>
+        <v>0.0903</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.9589</v>
+        <v>1.0762</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7.3241</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-0.8753</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="13">
@@ -391,52 +389,44 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.0145</v>
+        <v>0.0431</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.552</v>
+        <v>0.159</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.6639</v>
+        <v>0.7819</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1.1758</v>
+        <v>0.4255</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3.9805</v>
+        <v>0.6199</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-0.8152</v>
+        <v>-0.3829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Inventory Growth</t>
+          <t>Debt Growth</t>
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-0.9924</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.0876</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.3716</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-0.1682</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-0.3136</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -447,278 +437,284 @@
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Debt Growth</t>
+          <t>Book Value per Share Growth</t>
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-0.2441</v>
+        <v>0.0382</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1.8369</v>
+        <v>0.2625</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-0.6318</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>-0.2186</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-0.2976</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.0551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Book Value per Share Growth</t>
+          <t>Research and Development (R&amp;D) Expenses Growth</t>
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.2158</v>
+        <v>0.2162</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1.5279</v>
+        <v>0.2872</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-0.1704</v>
+        <v>-0.4978</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11.2932</v>
+        <v>3.7963</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-8.7913</v>
+        <v>0.2101</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.7246</v>
+        <v>-0.1746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Research and Development (R&amp;D) Expenses Growth</t>
+          <t>Selling, General and Administrative (SG&amp;A) Expenses Growth</t>
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.3361</v>
+        <v>0.3549</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.8998</v>
+        <v>0.2086</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2.4249</v>
+        <v>-0.1927</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>6.8825</v>
+        <v>1.862</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4.1483</v>
+        <v>0.5053</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-0.7895</v>
+        <v>-0.3353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Selling, General and Administrative (SG&amp;A) Expenses Growth</t>
+          <t>Depreciation &amp; Amortization Growth</t>
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.1112</v>
+        <v>0.6905</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.6002</v>
+        <v>-0.2565</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.4131</v>
+        <v>0.3309</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11.2843</v>
+        <v>0.3323</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7.4141</v>
+        <v>0.2928</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.8721</v>
+        <v>-0.2265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Depreciation &amp; Amortization Growth</t>
+          <t>5Y Revenue Growth (per Share)</t>
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1.8984</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.0898</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.2675</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>199.2382</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>2.1722</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>-0.6604</v>
+        <v>0.0242</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>5Y Revenue Growth (per Share)</t>
+          <t>3Y Revenue Growth (per Share)</t>
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.157</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-0.1218</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-0.0875</v>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F20" s="0" t="n">
+        <v>-0.2973</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.6418</v>
+        <v>-0.3248</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>3Y Revenue Growth (per Share)</t>
+          <t>5Y Operating CF Growth (per Share)</t>
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.6601</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1.2981</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2.7927</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>-0.3874</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>-0.6818</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>-0.737</v>
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>5Y Operating CF Growth (per Share)</t>
+          <t>3Y Operating CF Growth (per Share)</t>
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.9765</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>6.6088</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F22" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-0.4928</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>3Y Operating CF Growth (per Share)</t>
+          <t>5Y Net Income Growth (per Share)</t>
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2.1681</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1.4879</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>-0.237</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>-0.2773</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>-0.599</v>
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>5Y Net Income Growth (per Share)</t>
+          <t>3Y Net Income Growth (per Share)</t>
         </is>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="C24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F24" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.0</v>
@@ -727,142 +723,160 @@
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>3Y Net Income Growth (per Share)</t>
+          <t>5Y Shareholders Equity Growth (per Share)</t>
         </is>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.0</v>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>5Y Shareholders Equity Growth (per Share)</t>
+          <t>3Y Shareholders Equity Growth (per Share)</t>
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1.8982</v>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.008</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-0.1151</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F26" s="0" t="n">
+        <v>-0.3027</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-0.655</v>
+        <v>-0.2328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>3Y Shareholders Equity Growth (per Share)</t>
+          <t>5Y Revenue Growth (CAGR)</t>
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.3661</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>3.052</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>-0.2676</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>-0.7214</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>-0.7531</v>
+        <v>0.4275</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>5Y Revenue Growth (CAGR)</t>
+          <t>3Y Reveue Growth (CAGR)</t>
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1.8678</v>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.3486</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5052</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5297</v>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="F28" s="0" t="n">
+        <v>-0.3356</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.6505</v>
+        <v>-0.3463</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>3Y Reveue Growth (CAGR)</t>
+          <t>5Y Operating Income Growth (CAGR)</t>
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.9769</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>2.2008</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>2.8478</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>-0.4856</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>-0.6895</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>-0.7408</v>
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -877,21 +891,19 @@
       <c r="C30" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0.0</v>
+      <c r="D30" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F30" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G30" s="0" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -923,8 +935,10 @@
           <t/>
         </is>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0.0</v>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -942,8 +956,10 @@
       <c r="D32" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>0.0</v>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F32" s="0" t="n">
         <v>0.0</v>
@@ -959,7 +975,7 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1.0257</v>
+        <v>0.0</v>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
@@ -981,8 +997,10 @@
           <t/>
         </is>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>-0.5052</v>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -992,22 +1010,24 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.5871</v>
+        <v>7.9385</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3.4127</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.5238</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>-0.3593</v>
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F34" s="0" t="n">
-        <v>-0.2947</v>
+        <v>0.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-0.6048</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1017,7 +1037,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1.5672</v>
+        <v>0.0</v>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
@@ -1039,8 +1059,10 @@
           <t/>
         </is>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>-0.6105</v>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1050,22 +1072,24 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.6543</v>
+        <v>0.173</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1.2554</v>
+        <v>0.4532</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2.4991</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>-0.3952</v>
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F36" s="0" t="n">
-        <v>-0.5618</v>
+        <v>-0.3039</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-0.7142</v>
+        <v>-0.2251</v>
       </c>
     </row>
     <row r="37">
@@ -1075,7 +1099,7 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1.9701</v>
+        <v>0.0</v>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
@@ -1097,8 +1121,10 @@
           <t/>
         </is>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>-0.6633</v>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1108,22 +1134,24 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.6268</v>
+        <v>0.1748</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.0</v>
+        <v>0.5168</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3.1098</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>-0.385</v>
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-0.7281</v>
+        <v>-0.3407</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-0.7566</v>
+        <v>-0.2572</v>
       </c>
     </row>
   </sheetData>
